--- a/data/trans_dic/P23_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,03%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,86</t>
+          <t>6,23; 15,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 20,17</t>
+          <t>7,63; 18,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 23,5</t>
+          <t>5,68; 15,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,67; 31,16</t>
+          <t>9,47; 22,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,32; 29,56</t>
+          <t>19,96; 31,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,73</t>
+          <t>20,74; 32,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,46</t>
+          <t>17,0; 28,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,82</t>
+          <t>22,93; 37,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 21,56</t>
+          <t>14,74; 22,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,19; 25,18</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 20,04</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 28,53</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,26</t>
+          <t>8,96; 21,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 23,18</t>
+          <t>10,75; 23,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 19,98</t>
+          <t>10,03; 24,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 29,2</t>
+          <t>17,14; 32,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,78; 36,63</t>
+          <t>20,69; 34,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 33,16</t>
+          <t>23,48; 38,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,87</t>
+          <t>20,15; 33,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,17</t>
+          <t>27,05; 46,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,75</t>
+          <t>17,01; 26,21</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19,2; 30,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 26,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23,99; 36,81</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>21,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39,9%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 29,93</t>
+          <t>5,02; 41,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 30,17</t>
+          <t>8,22; 46,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 48,47</t>
+          <t>9,53; 73,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,52; 32,43</t>
+          <t>28,87; 82,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 34,67</t>
+          <t>12,51; 39,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 32,45</t>
+          <t>12,93; 41,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 27,24</t>
+          <t>10,46; 37,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 28,8</t>
+          <t>10,49; 39,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,01; 38,08</t>
+          <t>11,28; 33,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 38,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 55,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 61,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,15</t>
+          <t>9,64; 17,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,32</t>
+          <t>11,52; 20,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,2</t>
+          <t>10,89; 23,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,4</t>
+          <t>17,99; 32,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,14</t>
+          <t>21,5; 30,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,74</t>
+          <t>23,68; 32,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,37</t>
+          <t>19,35; 28,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 23,85</t>
+          <t>26,34; 38,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,2</t>
+          <t>17,18; 23,25</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 25,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 23,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 32,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44177</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41194</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36518</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77316</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>129030</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110369</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89817</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>163396</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>173206</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>151564</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>126336</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>240713</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26161; 65493</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25627; 60950</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21332; 57630</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46829; 111938</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>100652; 160559</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>86097; 135083</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>68613; 115165</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>126271; 206599</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136225; 211117</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>121597; 189138</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>98434; 156096</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>190428; 298158</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51157</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47408</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50832</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>98097</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>115054</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99371</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>85709</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>148783</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>166211</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>146779</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>136541</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>246881</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31804; 75710</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30293; 67509</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31041; 75953</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69879; 133747</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>88017; 144751</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76223; 124731</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66375; 110352</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>115418; 198694</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>132685; 204447</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>116451; 183812</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>106844; 169533</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>200152; 307122</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19716</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18198</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30241</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64723</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23410</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20614</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17970</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27337</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43126</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38812</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48211</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92059</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5111; 41896</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6092; 34810</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7945; 61689</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34469; 98649</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12360; 38860</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10312; 32796</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8427; 29798</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11682; 44217</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22624; 66755</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23959; 59354</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24968; 91162</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58093; 142113</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>115049</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106800</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117591</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>240136</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>267494</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>230355</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>193496</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>339516</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>382544</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>337155</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>311087</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>579653</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>84444; 153527</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79720; 139763</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>83681; 177027</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>183832; 327340</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>221083; 312757</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>194060; 265731</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>157370; 227735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>286777; 415333</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>327285; 442906</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>291672; 392730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>259012; 374502</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>495773; 684272</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
